--- a/drawio/timelineのコピー.xlsx
+++ b/drawio/timelineのコピー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abekishun/Desktop/卒論/kougai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abekishun/Desktop/卒論/drawio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B46B0E8-88CD-A94D-B325-09E19F0EE892}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F817E5-1CA6-7146-A0AA-C0D24B5CF08B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19760" yWindow="6340" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{37365851-A55B-9A4E-9803-939163891C54}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>通常の講義</t>
     <rPh sb="0" eb="2">
@@ -115,6 +114,13 @@
     <t>2限</t>
     <rPh sb="0" eb="1">
       <t>ゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケート・小テスト</t>
+    <rPh sb="45" eb="46">
+      <t>ショウテスt</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,6 +330,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,25 +357,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +700,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -705,7 +711,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -714,7 +720,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -725,7 +731,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -760,7 +766,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -772,15 +778,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="41" customHeight="1" thickBot="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -791,27 +797,27 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
@@ -820,14 +826,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="57" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>5</v>
+      <c r="B6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
